--- a/medicine/Enfance/La_Quête_d'Emily/La_Quête_d'Emily.xlsx
+++ b/medicine/Enfance/La_Quête_d'Emily/La_Quête_d'Emily.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Qu%C3%AAte_d%27Emily</t>
+          <t>La_Quête_d'Emily</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Quête d'Emily, de l'autrice canadienne Lucy Maud Montgomery, succède à L'Ascension d'Emily. Publié en 1927, il s'agit du troisième et dernier tome de la trilogie consacrée au personnage Emily.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Qu%C3%AAte_d%27Emily</t>
+          <t>La_Quête_d'Emily</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Emily Starr a maintenant dix-sept ans et a terminé ses études au lycée de Shewsbury. À New Moon, sa famille la considère comme une adulte, et lui accorde beaucoup plus de liberté. Emily et Teddy Kent sont toujours amis, mais lorsque Teddy est sur le point de partir pendant deux ans afin de poursuivre ses études d'artiste, Emily a l'impression que leur amitié s'épanouit en quelque chose de plus. Avant son départ, ils se jurent de penser l'un à l'autre, en regardant l'étoile Véga de la Lyre.
 Au cours des deux années suivantes, Emily grandit en tant qu'écrivain et apprend à gérer la solitude liée au départ de ses amis les plus proches (Ilse et Teddy à Montréal et Perry à Charlottetown ). La vie à New Moon change. M. Carpenter, professeur préféré d'Emily et critique le plus véridique, décède. Emily commence à s'épanouir en tant qu'écrivaine au point que le clan Murray reconnaît enfin son métier. Elle se rapproche de Dean Priest, même si elle craint qu'il souhaite plus que son amitié. Emily et Teddy deviennent distants alors qu'il se concentre sur la construction de sa propre carrière et qu'elle cache ses sentiments derrière la fierté.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Qu%C3%AAte_d%27Emily</t>
+          <t>La_Quête_d'Emily</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,6 +569,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
